--- a/Latest CPU and Memory Alerts-All-18-jul.xlsx
+++ b/Latest CPU and Memory Alerts-All-18-jul.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e788a6c2c51d51d/Desktop/Internship/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{6CBADA0B-CEBA-41AA-AF8C-3237247EFD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DBC2A84-6827-4DAA-8C4B-0A9A7D283011}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{6CBADA0B-CEBA-41AA-AF8C-3237247EFD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C97946DC-F7B3-4DB4-ACD0-0CC5FCF8D70F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7846E7DA-EC9C-4F28-A109-206F5C0E826B}"/>
+    <workbookView xWindow="-80" yWindow="0" windowWidth="11080" windowHeight="10080" xr2:uid="{7846E7DA-EC9C-4F28-A109-206F5C0E826B}"/>
   </bookViews>
   <sheets>
     <sheet name="Latest CPU and Memory Alerts-Al" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Latest CPU and Memory Alerts-Al'!$A$1:$I$69</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="419">
   <si>
     <t>Timestamp (Asia/Calcutta - IST)</t>
   </si>
@@ -1137,13 +1138,161 @@
   </si>
   <si>
     <t>STARNAV</t>
+  </si>
+  <si>
+    <t>26th Jul</t>
+  </si>
+  <si>
+    <t>cpu event observed 4 times</t>
+  </si>
+  <si>
+    <t>cpu event observed once,memory event observed once</t>
+  </si>
+  <si>
+    <t>memory event observed for 9 times</t>
+  </si>
+  <si>
+    <t>memory event observed 18 times</t>
+  </si>
+  <si>
+    <t>cpu event observed once,memory event observed  once</t>
+  </si>
+  <si>
+    <t>memory event observed 34 times</t>
+  </si>
+  <si>
+    <t>27th-29th Jul</t>
+  </si>
+  <si>
+    <t>cpu event observed 2 records</t>
+  </si>
+  <si>
+    <t>07/29/2024, 18:37:23</t>
+  </si>
+  <si>
+    <t>07/29/2024, 17:32:30</t>
+  </si>
+  <si>
+    <t>A.R.A. LIBERTAD</t>
+  </si>
+  <si>
+    <t>ES1K43ACBAA002387</t>
+  </si>
+  <si>
+    <t>Catching Moments</t>
+  </si>
+  <si>
+    <t>ES1K32AABAA001047</t>
+  </si>
+  <si>
+    <t>American Pride</t>
+  </si>
+  <si>
+    <t>ES1K37AABAA001499</t>
+  </si>
+  <si>
+    <t>ES1K42AABAA002228</t>
+  </si>
+  <si>
+    <t>ES1K39AABAA001806</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>ES1K37AABAA001512</t>
+  </si>
+  <si>
+    <t>American Endurance</t>
+  </si>
+  <si>
+    <t>ES1K37AABAA001509</t>
+  </si>
+  <si>
+    <t>cpu event observed for 85 times,memory event observed for 185 times</t>
+  </si>
+  <si>
+    <t>memory evnet observed for twice</t>
+  </si>
+  <si>
+    <t>cpu event observed 4 times,memory event observed 5 times</t>
+  </si>
+  <si>
+    <t>cpu event observed 2 times,memory event observed 7 times</t>
+  </si>
+  <si>
+    <t>Potomac Express`</t>
+  </si>
+  <si>
+    <t>memory event observed for twice</t>
+  </si>
+  <si>
+    <t>cpu event observed 23 times,memory event observed for 302 times</t>
+  </si>
+  <si>
+    <t>memory event observed 295 times</t>
+  </si>
+  <si>
+    <t>cpu event observed 2 times,memory event observed 2 times</t>
+  </si>
+  <si>
+    <t>memory event observed 2 times</t>
+  </si>
+  <si>
+    <t>memory event observed 3 times</t>
+  </si>
+  <si>
+    <t>memory event observed for 47 times</t>
+  </si>
+  <si>
+    <t>H.A Sklenar</t>
+  </si>
+  <si>
+    <t>memory event observed for three times</t>
+  </si>
+  <si>
+    <t>memory event observed for 111 times</t>
+  </si>
+  <si>
+    <t>memory event observed for 8 times</t>
+  </si>
+  <si>
+    <t>memory event for 6 times</t>
+  </si>
+  <si>
+    <t>13 days/16-07-2024</t>
+  </si>
+  <si>
+    <t>17 days/12-07-2024</t>
+  </si>
+  <si>
+    <t>Wilhelmsen</t>
+  </si>
+  <si>
+    <t>23 days/06-07-2024</t>
+  </si>
+  <si>
+    <t>49 days/10-06-2024</t>
+  </si>
+  <si>
+    <t>3 days/26-07-2024</t>
+  </si>
+  <si>
+    <t>TESAM ARGENTINA SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v6.5.4.98_67
+</t>
+  </si>
+  <si>
+    <t>9 days/20-07-2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1352,6 +1501,23 @@
       <color rgb="FF45464E"/>
       <name val="Inter"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="NunitoSans"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -1552,7 +1718,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1676,6 +1842,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1721,7 +1939,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1797,10 +2015,28 @@
     <xf numFmtId="0" fontId="31" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2176,16 +2412,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468F0EFC-BF3A-4330-B95E-EA62A816DD0E}">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="70" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.36328125" customWidth="1"/>
+    <col min="2" max="2" width="39.36328125" customWidth="1"/>
     <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.1796875" customWidth="1"/>
     <col min="6" max="6" width="17.36328125" bestFit="1" customWidth="1"/>
@@ -2195,7 +2431,7 @@
     <col min="12" max="12" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2241,8 +2477,14 @@
       <c r="O1" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2272,7 +2514,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -2299,7 +2541,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2326,7 +2568,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -2353,7 +2595,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -2383,7 +2625,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -2410,7 +2652,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -2437,7 +2679,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -2469,8 +2711,14 @@
       <c r="L9" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
@@ -2497,7 +2745,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
@@ -2524,7 +2772,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
@@ -2550,8 +2798,11 @@
         <v>40</v>
       </c>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="Q12" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
@@ -2581,7 +2832,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -2608,7 +2859,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
@@ -2634,8 +2885,11 @@
         <v>45479</v>
       </c>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>71</v>
       </c>
@@ -2661,8 +2915,11 @@
         <v>74</v>
       </c>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="Q16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>75</v>
       </c>
@@ -2694,8 +2951,11 @@
       <c r="L17" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="Q17" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
         <v>79</v>
       </c>
@@ -2723,7 +2983,7 @@
       <c r="I18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
         <v>84</v>
       </c>
@@ -2751,8 +3011,11 @@
       <c r="I19" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="47">
+      <c r="P19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="47">
       <c r="A20" s="1" t="s">
         <v>89</v>
       </c>
@@ -2783,8 +3046,11 @@
       <c r="J20" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="Q20" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
         <v>92</v>
       </c>
@@ -2813,7 +3079,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
         <v>96</v>
       </c>
@@ -2840,7 +3106,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
         <v>101</v>
       </c>
@@ -2878,8 +3144,14 @@
       <c r="O23" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
         <v>105</v>
       </c>
@@ -2908,7 +3180,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
         <v>109</v>
       </c>
@@ -2935,7 +3207,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
         <v>113</v>
       </c>
@@ -2976,8 +3248,14 @@
       <c r="O26" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
         <v>116</v>
       </c>
@@ -3004,7 +3282,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
         <v>119</v>
       </c>
@@ -3031,7 +3309,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
         <v>123</v>
       </c>
@@ -3063,8 +3341,11 @@
       <c r="M29" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="Q29" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
         <v>127</v>
       </c>
@@ -3096,8 +3377,11 @@
       <c r="O30" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="Q30" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
         <v>131</v>
       </c>
@@ -3124,7 +3408,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
         <v>135</v>
       </c>
@@ -3151,7 +3435,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:17">
       <c r="A33" s="1" t="s">
         <v>140</v>
       </c>
@@ -3178,7 +3462,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
         <v>144</v>
       </c>
@@ -3205,7 +3489,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:17">
       <c r="A35" s="1" t="s">
         <v>148</v>
       </c>
@@ -3232,7 +3516,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
         <v>152</v>
       </c>
@@ -3259,7 +3543,7 @@
       </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
         <v>157</v>
       </c>
@@ -3286,7 +3570,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
         <v>162</v>
       </c>
@@ -3313,7 +3597,7 @@
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
         <v>166</v>
       </c>
@@ -3340,7 +3624,7 @@
       </c>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:15" ht="47">
+    <row r="40" spans="1:17" ht="47">
       <c r="A40" s="1" t="s">
         <v>170</v>
       </c>
@@ -3386,8 +3670,11 @@
       <c r="O40" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="P40" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
         <v>173</v>
       </c>
@@ -3428,8 +3715,11 @@
       <c r="O41" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="P41" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
         <v>177</v>
       </c>
@@ -3456,7 +3746,7 @@
       </c>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
         <v>182</v>
       </c>
@@ -3482,8 +3772,11 @@
         <v>185</v>
       </c>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="Q43" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
         <v>186</v>
       </c>
@@ -3510,7 +3803,7 @@
       </c>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
         <v>191</v>
       </c>
@@ -3537,7 +3830,7 @@
       </c>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
         <v>195</v>
       </c>
@@ -3564,7 +3857,7 @@
       </c>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
         <v>199</v>
       </c>
@@ -3591,7 +3884,7 @@
       </c>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
         <v>203</v>
       </c>
@@ -3627,7 +3920,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:17">
       <c r="A49" s="1" t="s">
         <v>207</v>
       </c>
@@ -3654,7 +3947,7 @@
       </c>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:17">
       <c r="A50" s="1" t="s">
         <v>211</v>
       </c>
@@ -3681,7 +3974,7 @@
       </c>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:17">
       <c r="A51" s="1" t="s">
         <v>215</v>
       </c>
@@ -3708,7 +4001,7 @@
       </c>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:17">
       <c r="A52" s="1" t="s">
         <v>218</v>
       </c>
@@ -3738,7 +4031,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:17">
       <c r="A53" s="1" t="s">
         <v>222</v>
       </c>
@@ -3768,7 +4061,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:17">
       <c r="A54" s="1" t="s">
         <v>226</v>
       </c>
@@ -3795,7 +4088,7 @@
       </c>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:17">
       <c r="A55" s="1" t="s">
         <v>229</v>
       </c>
@@ -3827,8 +4120,14 @@
       <c r="L55" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="56" spans="1:15">
+      <c r="P55" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="1" t="s">
         <v>234</v>
       </c>
@@ -3855,7 +4154,7 @@
       </c>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:17">
       <c r="A57" s="1" t="s">
         <v>238</v>
       </c>
@@ -3882,7 +4181,7 @@
       </c>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:17">
       <c r="A58" s="1" t="s">
         <v>243</v>
       </c>
@@ -3909,7 +4208,7 @@
       </c>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:17">
       <c r="A59" s="1" t="s">
         <v>248</v>
       </c>
@@ -3936,7 +4235,7 @@
       </c>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:17">
       <c r="A60" s="1" t="s">
         <v>251</v>
       </c>
@@ -3963,7 +4262,7 @@
       </c>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:17">
       <c r="A61" s="1" t="s">
         <v>255</v>
       </c>
@@ -3990,7 +4289,7 @@
       </c>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:17">
       <c r="A62" s="1" t="s">
         <v>260</v>
       </c>
@@ -4034,8 +4333,11 @@
       <c r="O62" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="63" spans="1:15">
+      <c r="P62" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="1" t="s">
         <v>264</v>
       </c>
@@ -4065,7 +4367,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:17">
       <c r="A64" s="1" t="s">
         <v>268</v>
       </c>
@@ -4110,7 +4412,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:17">
       <c r="A65" s="1" t="s">
         <v>272</v>
       </c>
@@ -4139,7 +4441,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:17">
       <c r="A66" s="1" t="s">
         <v>279</v>
       </c>
@@ -4170,8 +4472,11 @@
       <c r="N66" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" ht="15" thickBot="1">
+      <c r="Q66" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="15" thickBot="1">
       <c r="A67" s="10" t="s">
         <v>284</v>
       </c>
@@ -4198,7 +4503,7 @@
       </c>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:14" ht="24.5" thickBot="1">
+    <row r="68" spans="1:17" ht="24.5" thickBot="1">
       <c r="A68" s="10" t="s">
         <v>288</v>
       </c>
@@ -4225,7 +4530,7 @@
       </c>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:14" ht="24.5" thickBot="1">
+    <row r="69" spans="1:17" ht="24.5" thickBot="1">
       <c r="A69" s="10" t="s">
         <v>292</v>
       </c>
@@ -4254,8 +4559,11 @@
       <c r="J69" s="16" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" s="19" customFormat="1" ht="12.5" thickBot="1">
+      <c r="Q69" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" s="19" customFormat="1" ht="12.5" thickBot="1">
       <c r="A70" s="17" t="s">
         <v>315</v>
       </c>
@@ -4275,8 +4583,11 @@
         <v>318</v>
       </c>
       <c r="H70" s="20"/>
-    </row>
-    <row r="71" spans="1:14" ht="15" thickBot="1">
+      <c r="Q70" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="15" thickBot="1">
       <c r="A71" s="23" t="s">
         <v>336</v>
       </c>
@@ -4302,7 +4613,7 @@
         <v>45492.590300925927</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="15" thickBot="1">
+    <row r="72" spans="1:17" ht="15" thickBot="1">
       <c r="A72" s="23" t="s">
         <v>339</v>
       </c>
@@ -4324,8 +4635,11 @@
       <c r="G72" s="12" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" ht="15" thickBot="1">
+      <c r="Q72" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="15" thickBot="1">
       <c r="A73" s="25" t="s">
         <v>349</v>
       </c>
@@ -4351,7 +4665,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="15" thickBot="1">
+    <row r="74" spans="1:17" ht="15" thickBot="1">
       <c r="A74" s="28" t="s">
         <v>363</v>
       </c>
@@ -4373,9 +4687,8 @@
       <c r="G74" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="H74" s="30"/>
-    </row>
-    <row r="75" spans="1:14" ht="15" thickBot="1">
+    </row>
+    <row r="75" spans="1:17" ht="15" thickBot="1">
       <c r="A75" s="28" t="s">
         <v>360</v>
       </c>
@@ -4397,10 +4710,239 @@
       <c r="G75" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="H75" s="30"/>
+      <c r="Q75" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="B76" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="C76" t="s">
+        <v>388</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="F76" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="B77" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="C77" t="s">
+        <v>390</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="F77" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="B78" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="C78" t="s">
+        <v>387</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="F78" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="B79" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="F79" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="B80" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="C80" t="s">
+        <v>386</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="F80" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="81" spans="2:17">
+      <c r="B81" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="C81" t="s">
+        <v>392</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="F81" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="82" spans="2:17" ht="29.5" thickBot="1">
+      <c r="B82" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="F82" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82" s="26" t="s">
+        <v>418</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13978D03-7C96-4A03-BDE8-FE6759E39AB8}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="25.36328125" customWidth="1"/>
+    <col min="2" max="2" width="34.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1">
+      <c r="A1" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1">
+      <c r="A2" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C3">
+    <sortCondition ref="B1:B3"/>
+  </sortState>
+  <dataConsolidate function="count" topLabels="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>